--- a/Excel/RoomConfig.xlsx
+++ b/Excel/RoomConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t xml:space="preserve"> AppType.Match</t>
   </si>
@@ -56,7 +56,10 @@
     <t>最大进场限制</t>
   </si>
   <si>
-    <t>人数</t>
+    <t>最小游戏人数</t>
+  </si>
+  <si>
+    <t>最大游戏人数</t>
   </si>
   <si>
     <t>_id</t>
@@ -96,6 +99,9 @@
     </r>
   </si>
   <si>
+    <t>MinPlayers</t>
+  </si>
+  <si>
     <t>MaxPlayers</t>
   </si>
   <si>
@@ -122,24 +128,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -155,22 +155,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,15 +216,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,11 +245,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,68 +285,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,13 +320,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,12 +404,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -363,145 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,56 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,6 +532,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -612,16 +570,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,137 +623,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,13 +761,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1128,13 +1115,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7777777777778" style="2" customWidth="1"/>
@@ -1149,88 +1136,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="1">
         <v>101000</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1242,20 +1238,23 @@
         <v>10000</v>
       </c>
       <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>102000</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2">
@@ -1265,18 +1264,21 @@
         <v>20000</v>
       </c>
       <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>103000</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1288,6 +1290,9 @@
         <v>30000</v>
       </c>
       <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Excel/RoomConfig.xlsx
+++ b/Excel/RoomConfig.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
-  <si>
-    <t xml:space="preserve"> AppType.Match</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+  <si>
+    <t xml:space="preserve"> AppType.Match|AppType.Game|AppType.World</t>
   </si>
   <si>
     <t>房间模板id</t>
@@ -50,6 +50,18 @@
     </r>
   </si>
   <si>
+    <t>游戏模式</t>
+  </si>
+  <si>
+    <t>大厅类型</t>
+  </si>
+  <si>
+    <t>底分</t>
+  </si>
+  <si>
+    <t>数组扩展参数</t>
+  </si>
+  <si>
     <t>最小进场限制</t>
   </si>
   <si>
@@ -72,6 +84,18 @@
   </si>
   <si>
     <t>GameId</t>
+  </si>
+  <si>
+    <t>GameMode</t>
+  </si>
+  <si>
+    <t>HallType</t>
+  </si>
+  <si>
+    <t>BaseScore</t>
+  </si>
+  <si>
+    <t>IntParams</t>
   </si>
   <si>
     <t>MinLimitCoin</t>
@@ -111,16 +135,25 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>初级场</t>
   </si>
   <si>
     <t>经典牛牛</t>
   </si>
   <si>
+    <t>1,2,5,10,20</t>
+  </si>
+  <si>
     <t>中级场</t>
   </si>
   <si>
     <t>高级场</t>
+  </si>
+  <si>
+    <t>抢庄牛牛</t>
   </si>
 </sst>
 </file>
@@ -129,8 +162,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -155,15 +188,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,15 +213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +227,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +270,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -254,9 +287,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,23 +310,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +538,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,6 +581,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -549,24 +612,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,42 +638,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,16 +656,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,115 +674,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,13 +1148,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7777777777778" style="2" customWidth="1"/>
@@ -1132,7 +1165,8 @@
     <col min="7" max="7" width="17.8888888888889" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.1111111111111" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="12.1111111111111" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1140,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1165,134 +1199,320 @@
       <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
+    <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="1">
-        <v>101000</v>
+        <v>10101000</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1">
         <v>1000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="J6" s="1">
         <v>10000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="L6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>102000</v>
+        <v>10102000</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>500</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2">
         <v>2000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>20000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
-        <v>103000</v>
+        <v>10103000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
         <v>3000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="J8" s="2">
         <v>30000</v>
       </c>
-      <c r="G8" s="2">
+      <c r="K8" s="2">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>10201000</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>10202000</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>500</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>10203000</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Excel/RoomConfig.xlsx
+++ b/Excel/RoomConfig.xlsx
@@ -161,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -188,6 +188,95 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -204,8 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,28 +303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,47 +318,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,37 +331,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -347,31 +347,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,145 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +538,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,51 +619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -617,15 +626,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1317,7 +1317,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="1">
-        <v>10000</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="1">
         <v>2</v>
@@ -1355,7 +1355,7 @@
         <v>2000</v>
       </c>
       <c r="J7" s="2">
-        <v>20000</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="2">
         <v>2</v>
@@ -1393,7 +1393,7 @@
         <v>3000</v>
       </c>
       <c r="J8" s="2">
-        <v>30000</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="2">
         <v>2</v>
@@ -1431,7 +1431,7 @@
         <v>1000</v>
       </c>
       <c r="J9" s="1">
-        <v>10000</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
@@ -1469,7 +1469,7 @@
         <v>2000</v>
       </c>
       <c r="J10" s="2">
-        <v>20000</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="2">
         <v>2</v>
@@ -1507,7 +1507,7 @@
         <v>3000</v>
       </c>
       <c r="J11" s="2">
-        <v>30000</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="2">
         <v>2</v>

--- a/Excel/RoomConfig.xlsx
+++ b/Excel/RoomConfig.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
-    <t xml:space="preserve"> AppType.Match|AppType.Game|AppType.World</t>
+    <t xml:space="preserve"> AppType.Match|AppType.Game|AppType.World|AppType.ClientH</t>
   </si>
   <si>
     <t>房间模板id</t>
@@ -161,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -189,6 +189,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,6 +218,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,77 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,13 +257,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -317,13 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -331,6 +292,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -347,49 +347,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,13 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,102 +515,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -522,12 +528,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,11 +541,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +582,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -580,17 +606,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,26 +634,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -644,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
